--- a/sample_output/marksheet/concise_marksheet.xlsx
+++ b/sample_output/marksheet/concise_marksheet.xlsx
@@ -19,10 +19,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Times"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -639,7 +639,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>39/140</t>
+          <t>33.5/140</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.0/140</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13/140</t>
+          <t>10.5/140</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/140</t>
+          <t>23.0/140</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>33/140</t>
+          <t>28.5/140</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.0/140</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>88/140</t>
+          <t>79.0/140</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/140</t>
+          <t>20.5/140</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.0/140</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/140</t>
+          <t>18.0/140</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>37/140</t>
+          <t>32.5/140</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>44/140</t>
+          <t>38.0/140</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>97/140</t>
+          <t>87.0/140</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/140</t>
+          <t>16.5/140</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.0/140</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>75/140</t>
+          <t>67.0/140</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>61/140</t>
+          <t>54.5/140</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>123/140</t>
+          <t>110.5/140</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>79/140</t>
+          <t>71.0/140</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>65/140</t>
+          <t>58.0/140</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>59.5/140</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>102/140</t>
+          <t>91.5/140</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>108/140</t>
+          <t>97.0/140</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>82/140</t>
+          <t>73.5/140</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>102/140</t>
+          <t>91.5/140</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>39/140</t>
+          <t>34.5/140</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>79.5/140</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.5/140</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>50/140</t>
+          <t>45.0/140</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>109/140</t>
+          <t>98.0/140</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>63/140</t>
+          <t>56.0/140</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>64/140</t>
+          <t>57.5/140</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/140</t>
+          <t>26.0/140</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96/140</t>
+          <t>86.0/140</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>32.5/140</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>63.0/140</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>44/140</t>
+          <t>38.5/140</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>109/140</t>
+          <t>98.0/140</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.5/140</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>33/140</t>
+          <t>29.5/140</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.5/140</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>50/140</t>
+          <t>44.5/140</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>122/140</t>
+          <t>109.5/140</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.5/140</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>62/140</t>
+          <t>55.0/140</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>125/140</t>
+          <t>112.5/140</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>50/140</t>
+          <t>43.5/140</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -12914,7 +12914,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>33.0/140</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>116/140</t>
+          <t>104.0/140</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>116/140</t>
+          <t>104.0/140</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>123/140</t>
+          <t>110.5/140</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>67.5/140</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>100/140</t>
+          <t>90.0/140</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>112/140</t>
+          <t>100.5/140</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>99.0/140</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.0/140</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>112/140</t>
+          <t>100.5/140</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>112/140</t>
+          <t>100.5/140</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -15788,7 +15788,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>60/140</t>
+          <t>53.5/140</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>123/140</t>
+          <t>110.5/140</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -16309,7 +16309,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>117/140</t>
+          <t>105.0/140</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>62.5/140</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>98/140</t>
+          <t>88.0/140</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>80.0/140</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>40/140</t>
+          <t>36.0/140</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>53/140</t>
+          <t>47.5/140</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>35/140</t>
+          <t>31.5/140</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>125/140</t>
+          <t>112.5/140</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -18335,7 +18335,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>63.0/140</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>77.0/140</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>125/140</t>
+          <t>112.5/140</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>60/140</t>
+          <t>53.5/140</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>98/140</t>
+          <t>88.0/140</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -19725,7 +19725,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>116/140</t>
+          <t>104.0/140</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -20085,7 +20085,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -20262,7 +20262,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -20610,7 +20610,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>95/140</t>
+          <t>85.5/140</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>68/140</t>
+          <t>60.5/140</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>77.0/140</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -21479,7 +21479,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>135/140</t>
+          <t>121.5/140</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -21662,7 +21662,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>44/140</t>
+          <t>38.0/140</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>96/140</t>
+          <t>86.0/140</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.0/140</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -22386,7 +22386,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>74/140</t>
+          <t>66.5/140</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -22722,7 +22722,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -22903,7 +22903,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.0/140</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -23255,7 +23255,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>47/140</t>
+          <t>42.0/140</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>98.5/140</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>112/140</t>
+          <t>100.5/140</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -24460,7 +24460,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>79/140</t>
+          <t>71.0/140</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>73/140</t>
+          <t>65.5/140</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -24957,7 +24957,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -25303,7 +25303,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.5/140</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>99.0/140</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -25820,7 +25820,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -26005,7 +26005,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>98/140</t>
+          <t>88.0/140</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>95/140</t>
+          <t>85.0/140</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>79/140</t>
+          <t>71.0/140</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>96/140</t>
+          <t>86.0/140</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -26697,7 +26697,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>96/140</t>
+          <t>86.0/140</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -26874,7 +26874,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>96/140</t>
+          <t>86.0/140</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -27403,7 +27403,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>98.5/140</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -27948,7 +27948,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>90/140</t>
+          <t>81.0/140</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>56/140</t>
+          <t>49.5/140</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -28286,7 +28286,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>111/140</t>
+          <t>99.5/140</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -28469,7 +28469,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>56/140</t>
+          <t>49.0/140</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -28654,7 +28654,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -28839,7 +28839,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>85/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -29002,7 +29002,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>75/140</t>
+          <t>67.0/140</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -29173,7 +29173,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -29354,7 +29354,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>77.0/140</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -29706,7 +29706,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>87/140</t>
+          <t>78.0/140</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -29877,7 +29877,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>90/140</t>
+          <t>80.5/140</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -30054,7 +30054,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -30231,7 +30231,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>62.5/140</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -30400,7 +30400,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>95/140</t>
+          <t>85.5/140</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -30567,7 +30567,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>66/140</t>
+          <t>59.0/140</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -30732,7 +30732,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>98/140</t>
+          <t>88.0/140</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>33.5/140</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -31066,7 +31066,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>77/140</t>
+          <t>69.0/140</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>85/140</t>
+          <t>76.0/140</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>100/140</t>
+          <t>89.5/140</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -31589,7 +31589,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>120/140</t>
+          <t>108.0/140</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>63/140</t>
+          <t>56.5/140</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -31925,7 +31925,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>78/140</t>
+          <t>70.0/140</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>45/140</t>
+          <t>40.5/140</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -32237,7 +32237,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>71/140</t>
+          <t>63.5/140</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -32404,7 +32404,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>95/140</t>
+          <t>85.0/140</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -32583,7 +32583,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -32766,7 +32766,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>68.0/140</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -32935,7 +32935,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>57/140</t>
+          <t>51.0/140</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -33094,7 +33094,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>117/140</t>
+          <t>105.0/140</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>62/140</t>
+          <t>55.5/140</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -33438,7 +33438,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>99/140</t>
+          <t>89.0/140</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -33609,7 +33609,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>80/140</t>
+          <t>72.0/140</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>77.0/140</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.0/140</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -34124,7 +34124,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -34309,7 +34309,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>80.0/140</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -34647,7 +34647,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>108/140</t>
+          <t>97.0/140</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -34824,7 +34824,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>102/140</t>
+          <t>91.5/140</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>75/140</t>
+          <t>67.5/140</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -35160,7 +35160,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>68/140</t>
+          <t>61.0/140</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>82/140</t>
+          <t>73.5/140</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -35661,7 +35661,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>66/140</t>
+          <t>59.0/140</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -35826,7 +35826,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.5/140</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -35991,7 +35991,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>79.5/140</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>62/140</t>
+          <t>55.5/140</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -36516,7 +36516,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>85/140</t>
+          <t>76.0/140</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -36691,7 +36691,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>97/140</t>
+          <t>87.0/140</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -36866,7 +36866,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.5/140</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -37035,7 +37035,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>66/140</t>
+          <t>59.0/140</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -37200,7 +37200,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>108/140</t>
+          <t>97.0/140</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -37377,7 +37377,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>65/140</t>
+          <t>58.5/140</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -37532,7 +37532,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>50/140</t>
+          <t>45.0/140</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -37681,7 +37681,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -37866,7 +37866,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>32/140</t>
+          <t>28.5/140</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -38015,7 +38015,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>59/140</t>
+          <t>53.0/140</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -38170,7 +38170,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -38329,7 +38329,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -38502,7 +38502,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>80.0/140</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -38669,7 +38669,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>87/140</t>
+          <t>78.0/140</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -38840,7 +38840,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>68/140</t>
+          <t>61.0/140</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -39001,7 +39001,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -39180,7 +39180,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -39355,7 +39355,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>33.0/140</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -39528,7 +39528,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>49/140</t>
+          <t>43.5/140</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -39691,7 +39691,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>66/140</t>
+          <t>59.0/140</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -39856,7 +39856,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>85/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -40019,7 +40019,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>122/140</t>
+          <t>109.5/140</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -40204,7 +40204,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>115/140</t>
+          <t>103.5/140</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -40379,7 +40379,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.5/140</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -40731,7 +40731,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>79.5/140</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -40910,7 +40910,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -41085,7 +41085,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>98.5/140</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -41270,7 +41270,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -41443,7 +41443,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>61.5/140</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -41614,7 +41614,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -41791,7 +41791,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -41964,7 +41964,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -42145,7 +42145,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>87/140</t>
+          <t>78.0/140</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>60/140</t>
+          <t>54.0/140</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -42469,7 +42469,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>99.0/140</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -42642,7 +42642,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>41/140</t>
+          <t>36.5/140</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>135/140</t>
+          <t>121.5/140</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -42980,7 +42980,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.5/140</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -43149,7 +43149,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.5/140</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>80/140</t>
+          <t>71.5/140</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -43487,7 +43487,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>39/140</t>
+          <t>35.0/140</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -43634,7 +43634,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>88/140</t>
+          <t>79.0/140</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -43803,7 +43803,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>125/140</t>
+          <t>112.5/140</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -43982,7 +43982,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.5/140</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -44147,7 +44147,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>97/140</t>
+          <t>87.0/140</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -44322,7 +44322,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -44485,7 +44485,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.0/140</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -44664,7 +44664,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>62/140</t>
+          <t>54.5/140</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -44849,7 +44849,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>88/140</t>
+          <t>79.0/140</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -45018,7 +45018,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>89/140</t>
+          <t>80.0/140</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -45185,7 +45185,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>68.0/140</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -45354,7 +45354,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.0/140</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -45537,7 +45537,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>49/140</t>
+          <t>44.0/140</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -45688,7 +45688,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>90/140</t>
+          <t>81.0/140</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -45853,7 +45853,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>111/140</t>
+          <t>99.5/140</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>108/140</t>
+          <t>97.0/140</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -46213,7 +46213,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -46372,7 +46372,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -46551,7 +46551,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>42/140</t>
+          <t>37.5/140</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -46704,7 +46704,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.0/140</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -46887,7 +46887,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -47054,7 +47054,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>74/140</t>
+          <t>66.5/140</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -47215,7 +47215,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -47382,7 +47382,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>99.0/140</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -47726,7 +47726,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>44/140</t>
+          <t>39.5/140</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -47875,7 +47875,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>110/140</t>
+          <t>99.0/140</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -48048,7 +48048,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>129/140</t>
+          <t>116.0/140</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -48231,7 +48231,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>64/140</t>
+          <t>57.0/140</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -48400,7 +48400,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>73/140</t>
+          <t>65.0/140</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -48575,7 +48575,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>65/140</t>
+          <t>58.5/140</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -48730,7 +48730,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -48909,7 +48909,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.0/140</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -49088,7 +49088,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>100/140</t>
+          <t>90.0/140</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -49257,7 +49257,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>128/140</t>
+          <t>115.0/140</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -49442,7 +49442,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>88/140</t>
+          <t>79.0/140</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -49786,7 +49786,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>70/140</t>
+          <t>62.5/140</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -49955,7 +49955,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -50130,7 +50130,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>63/140</t>
+          <t>55.5/140</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -50313,7 +50313,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -50492,7 +50492,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.0/140</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -50677,7 +50677,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>99/140</t>
+          <t>89.0/140</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -50848,7 +50848,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>130/140</t>
+          <t>117.0/140</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -51029,7 +51029,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>81/140</t>
+          <t>72.5/140</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -51200,7 +51200,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>71/140</t>
+          <t>63.5/140</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -51530,7 +51530,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>75/140</t>
+          <t>67.5/140</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>108/140</t>
+          <t>97.0/140</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -51866,7 +51866,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>24/140</t>
+          <t>21.5/140</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -52007,7 +52007,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>115/140</t>
+          <t>103.5/140</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -52182,7 +52182,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.5/140</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.0/140</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -52524,7 +52524,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -52695,7 +52695,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>59/140</t>
+          <t>53.0/140</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -52850,7 +52850,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>124/140</t>
+          <t>111.5/140</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -53031,7 +53031,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>37/140</t>
+          <t>32.5/140</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -53194,7 +53194,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -53365,7 +53365,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>35/140</t>
+          <t>31.0/140</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -53520,7 +53520,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -53699,7 +53699,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -53878,7 +53878,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>104/140</t>
+          <t>93.5/140</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -54051,7 +54051,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>117/140</t>
+          <t>105.0/140</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -54234,7 +54234,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -54413,7 +54413,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>77/140</t>
+          <t>69.0/140</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -54580,7 +54580,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>98/140</t>
+          <t>88.0/140</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -54753,7 +54753,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>46/140</t>
+          <t>41.0/140</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -54910,7 +54910,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -55077,7 +55077,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -55256,7 +55256,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>68.0/140</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -55425,7 +55425,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>116/140</t>
+          <t>104.0/140</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -55610,7 +55610,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>107/140</t>
+          <t>96.0/140</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -55789,7 +55789,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>114/140</t>
+          <t>102.5/140</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -55966,7 +55966,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>67.5/140</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -56147,7 +56147,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>69/140</t>
+          <t>62.0/140</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -56306,7 +56306,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>14/140</t>
+          <t>11.0/140</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -56479,7 +56479,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.5/140</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -56650,7 +56650,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -56821,7 +56821,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>117/140</t>
+          <t>105.0/140</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -57004,7 +57004,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>87/140</t>
+          <t>78.0/140</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -57175,7 +57175,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>140/140</t>
+          <t>126.0/140</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -57360,7 +57360,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>105/140</t>
+          <t>94.5/140</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -57531,7 +57531,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>35/140</t>
+          <t>31.0/140</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -57686,7 +57686,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>75/140</t>
+          <t>67.0/140</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -57857,7 +57857,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -58024,7 +58024,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -58203,7 +58203,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -58374,7 +58374,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>65/140</t>
+          <t>58.5/140</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -58529,7 +58529,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>93/140</t>
+          <t>83.5/140</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -58700,7 +58700,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>76/140</t>
+          <t>67.5/140</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -58881,7 +58881,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>84/140</t>
+          <t>75.5/140</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -59046,7 +59046,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>118/140</t>
+          <t>106.0/140</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -59227,7 +59227,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>74/140</t>
+          <t>66.5/140</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -59388,7 +59388,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>61/140</t>
+          <t>54.5/140</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -59551,7 +59551,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>100/140</t>
+          <t>89.5/140</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -59732,7 +59732,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>103/140</t>
+          <t>92.5/140</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -59907,7 +59907,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>73/140</t>
+          <t>65.5/140</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -60070,7 +60070,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>102/140</t>
+          <t>91.5/140</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -60247,7 +60247,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -60420,7 +60420,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -60583,7 +60583,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>115/140</t>
+          <t>103.5/140</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -60758,7 +60758,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>112/140</t>
+          <t>100.5/140</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -60939,7 +60939,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>111/140</t>
+          <t>99.5/140</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -61122,7 +61122,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>83/140</t>
+          <t>74.5/140</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -61289,7 +61289,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>77/140</t>
+          <t>69.0/140</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -61456,7 +61456,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>134/140</t>
+          <t>120.5/140</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -61641,7 +61641,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>91/140</t>
+          <t>81.5/140</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -61816,7 +61816,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>113/140</t>
+          <t>101.5/140</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -61995,7 +61995,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>80/140</t>
+          <t>71.5/140</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -62168,7 +62168,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>57/140</t>
+          <t>51.0/140</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -62327,7 +62327,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>94/140</t>
+          <t>84.5/140</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -62496,7 +62496,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>32/140</t>
+          <t>27.0/140</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -62681,7 +62681,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>33.5/140</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -62842,7 +62842,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>92/140</t>
+          <t>82.5/140</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -63015,7 +63015,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>37/140</t>
+          <t>33.0/140</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -63166,7 +63166,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.5/140</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -63331,7 +63331,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>71/140</t>
+          <t>63.0/140</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -63510,7 +63510,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>37/140</t>
+          <t>33.0/140</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -63661,7 +63661,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>56/140</t>
+          <t>50.0/140</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -63822,7 +63822,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>41/140</t>
+          <t>36.5/140</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -63977,7 +63977,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>77/140</t>
+          <t>69.0/140</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -64144,7 +64144,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>60/140</t>
+          <t>53.5/140</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -64309,7 +64309,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>72/140</t>
+          <t>64.5/140</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -64474,7 +64474,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>49/140</t>
+          <t>43.5/140</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -64637,7 +64637,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>53/140</t>
+          <t>47.5/140</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -64792,7 +64792,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>100/140</t>
+          <t>90.0/140</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -64961,7 +64961,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>14/140</t>
+          <t>12.5/140</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -65098,7 +65098,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>119/140</t>
+          <t>107.0/140</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -65277,7 +65277,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>67/140</t>
+          <t>60.0/140</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -65440,7 +65440,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>113/140</t>
+          <t>101.5/140</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -65619,7 +65619,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>51/140</t>
+          <t>45.5/140</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -65778,7 +65778,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>99/140</t>
+          <t>88.5/140</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -65961,7 +65961,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>78/140</t>
+          <t>70.0/140</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -66126,7 +66126,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>106/140</t>
+          <t>95.0/140</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -66307,7 +66307,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>122/140</t>
+          <t>109.5/140</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -66492,7 +66492,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>86/140</t>
+          <t>76.5/140</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -66677,7 +66677,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>95/140</t>
+          <t>85.5/140</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -66844,7 +66844,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>123/140</t>
+          <t>110.5/140</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -67027,7 +67027,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>38/140</t>
+          <t>34.0/140</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -67176,7 +67176,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>44/140</t>
+          <t>39.5/140</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -67325,7 +67325,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>46/140</t>
+          <t>41.0/140</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -67482,7 +67482,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>43/140</t>
+          <t>38.5/140</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -67633,7 +67633,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>79/140</t>
+          <t>70.5/140</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -67808,7 +67808,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>102/140</t>
+          <t>91.5/140</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -67985,7 +67985,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>55/140</t>
+          <t>49.5/140</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -68136,7 +68136,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>55/140</t>
+          <t>49.5/140</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
